--- a/data/pitcher_data/2021/adon_joan.xlsx
+++ b/data/pitcher_data/2021/adon_joan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,20 +511,25 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>inning_topbot</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>at_bat_number</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pitch_number</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
@@ -587,16 +592,21 @@
       <c r="P2" t="n">
         <v>6</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>6</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>5</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -647,16 +657,21 @@
       <c r="P3" t="n">
         <v>6</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
         <v>50</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -707,16 +722,21 @@
       <c r="P4" t="n">
         <v>6</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
         <v>50</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>4</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,16 +787,21 @@
       <c r="P5" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
         <v>50</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>5</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -827,16 +852,21 @@
       <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>50</v>
       </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
       <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
         <v>5</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -887,16 +917,21 @@
       <c r="P7" t="n">
         <v>6</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>50</v>
       </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
       <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -955,16 +990,21 @@
       <c r="P8" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>49</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1013,16 +1053,21 @@
       <c r="P9" t="n">
         <v>6</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>49</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>4</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>5</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1071,16 +1116,21 @@
       <c r="P10" t="n">
         <v>6</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>49</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>3</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>5</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,16 +1179,21 @@
       <c r="P11" t="n">
         <v>6</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>49</v>
       </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
       <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
         <v>5</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,16 +1242,21 @@
       <c r="P12" t="n">
         <v>6</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>49</v>
       </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
       <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
         <v>5</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1251,16 +1311,21 @@
       <c r="P13" t="n">
         <v>6</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
         <v>48</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="n">
+        <v>5</v>
+      </c>
+      <c r="U13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1309,16 +1374,21 @@
       <c r="P14" t="n">
         <v>6</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>48</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>4</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>5</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1367,16 +1437,21 @@
       <c r="P15" t="n">
         <v>6</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>48</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>5</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1425,16 +1500,21 @@
       <c r="P16" t="n">
         <v>6</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>48</v>
       </c>
-      <c r="R16" t="n">
-        <v>2</v>
-      </c>
       <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
         <v>5</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,16 +1563,21 @@
       <c r="P17" t="n">
         <v>6</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>48</v>
       </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
       <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
         <v>5</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1555,16 +1640,21 @@
       <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>40</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>3</v>
       </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
       <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1617,16 +1707,21 @@
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>40</v>
       </c>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
       <c r="S19" t="n">
         <v>2</v>
       </c>
       <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1679,16 +1774,21 @@
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>40</v>
       </c>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1751,16 +1851,21 @@
       <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>39</v>
       </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
       <c r="S21" t="n">
         <v>2</v>
       </c>
       <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,16 +1918,21 @@
       <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>39</v>
       </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1875,16 +1985,21 @@
       <c r="P23" t="n">
         <v>5</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>39</v>
       </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1945,16 +2060,21 @@
       <c r="P24" t="n">
         <v>5</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>38</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>3</v>
       </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
       <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,16 +2125,21 @@
       <c r="P25" t="n">
         <v>5</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>38</v>
       </c>
-      <c r="R25" t="n">
-        <v>2</v>
-      </c>
       <c r="S25" t="n">
         <v>2</v>
       </c>
       <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2065,16 +2190,21 @@
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>38</v>
       </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,16 +2257,21 @@
       <c r="P27" t="n">
         <v>5</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>37</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>5</v>
       </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
       <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,16 +2324,21 @@
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>37</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
       <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2247,16 +2387,21 @@
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>37</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>4</v>
       </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
       <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2305,16 +2450,21 @@
       <c r="P30" t="n">
         <v>5</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>37</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>3</v>
       </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
       <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2363,16 +2513,21 @@
       <c r="P31" t="n">
         <v>5</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
         <v>37</v>
       </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
       <c r="S31" t="n">
         <v>2</v>
       </c>
       <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2421,16 +2576,21 @@
       <c r="P32" t="n">
         <v>5</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>37</v>
       </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2489,16 +2649,21 @@
       <c r="P33" t="n">
         <v>5</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>36</v>
       </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2553,16 +2718,21 @@
       <c r="P34" t="n">
         <v>4</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>31</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>3</v>
       </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
       <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2611,16 +2781,21 @@
       <c r="P35" t="n">
         <v>4</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>31</v>
       </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
       <c r="S35" t="n">
         <v>2</v>
       </c>
       <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,16 +2844,21 @@
       <c r="P36" t="n">
         <v>4</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>31</v>
       </c>
-      <c r="R36" t="n">
-        <v>1</v>
-      </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2737,16 +2917,21 @@
       <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
         <v>30</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>5</v>
       </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
       <c r="T37" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,16 +2980,21 @@
       <c r="P38" t="n">
         <v>4</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>30</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>4</v>
       </c>
-      <c r="S38" t="n">
-        <v>2</v>
-      </c>
       <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2853,16 +3043,21 @@
       <c r="P39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>30</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>3</v>
       </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
       <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2911,16 +3106,21 @@
       <c r="P40" t="n">
         <v>4</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>30</v>
       </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
       <c r="S40" t="n">
         <v>2</v>
       </c>
       <c r="T40" t="n">
+        <v>2</v>
+      </c>
+      <c r="U40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,16 +3169,21 @@
       <c r="P41" t="n">
         <v>4</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>30</v>
       </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
+        <v>2</v>
+      </c>
+      <c r="U41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3033,16 +3238,21 @@
       <c r="P42" t="n">
         <v>4</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>29</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>5</v>
       </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
       <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,16 +3301,21 @@
       <c r="P43" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
         <v>29</v>
       </c>
-      <c r="R43" t="n">
+      <c r="S43" t="n">
         <v>4</v>
       </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
       <c r="T43" t="n">
+        <v>2</v>
+      </c>
+      <c r="U43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3149,16 +3364,21 @@
       <c r="P44" t="n">
         <v>4</v>
       </c>
-      <c r="Q44" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>29</v>
       </c>
-      <c r="R44" t="n">
+      <c r="S44" t="n">
         <v>3</v>
       </c>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
       <c r="T44" t="n">
+        <v>2</v>
+      </c>
+      <c r="U44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3207,16 +3427,21 @@
       <c r="P45" t="n">
         <v>4</v>
       </c>
-      <c r="Q45" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>29</v>
       </c>
-      <c r="R45" t="n">
-        <v>2</v>
-      </c>
       <c r="S45" t="n">
         <v>2</v>
       </c>
       <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,16 +3490,21 @@
       <c r="P46" t="n">
         <v>4</v>
       </c>
-      <c r="Q46" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>29</v>
       </c>
-      <c r="R46" t="n">
-        <v>1</v>
-      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3331,16 +3561,21 @@
       <c r="P47" t="n">
         <v>4</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>28</v>
       </c>
-      <c r="R47" t="n">
+      <c r="S47" t="n">
         <v>4</v>
       </c>
-      <c r="S47" t="n">
-        <v>2</v>
-      </c>
       <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3389,16 +3624,21 @@
       <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>28</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>3</v>
       </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
       <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3447,16 +3687,21 @@
       <c r="P49" t="n">
         <v>4</v>
       </c>
-      <c r="Q49" t="n">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
         <v>28</v>
       </c>
-      <c r="R49" t="n">
-        <v>2</v>
-      </c>
       <c r="S49" t="n">
         <v>2</v>
       </c>
       <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3505,16 +3750,21 @@
       <c r="P50" t="n">
         <v>4</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>28</v>
       </c>
-      <c r="R50" t="n">
-        <v>1</v>
-      </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3571,16 +3821,21 @@
       <c r="P51" t="n">
         <v>3</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>21</v>
       </c>
-      <c r="R51" t="n">
+      <c r="S51" t="n">
         <v>6</v>
       </c>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
       <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3631,16 +3886,21 @@
       <c r="P52" t="n">
         <v>3</v>
       </c>
-      <c r="Q52" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>21</v>
       </c>
-      <c r="R52" t="n">
+      <c r="S52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
       <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3691,16 +3951,21 @@
       <c r="P53" t="n">
         <v>3</v>
       </c>
-      <c r="Q53" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>21</v>
       </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
       <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3751,16 +4016,21 @@
       <c r="P54" t="n">
         <v>3</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>21</v>
       </c>
-      <c r="R54" t="n">
+      <c r="S54" t="n">
         <v>3</v>
       </c>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
       <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3811,16 +4081,21 @@
       <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
         <v>21</v>
       </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3871,16 +4146,21 @@
       <c r="P56" t="n">
         <v>3</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>21</v>
       </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
       <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3933,16 +4213,21 @@
       <c r="P57" t="n">
         <v>3</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>20</v>
       </c>
-      <c r="R57" t="n">
+      <c r="S57" t="n">
         <v>6</v>
       </c>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
       <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3991,16 +4276,21 @@
       <c r="P58" t="n">
         <v>3</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>20</v>
       </c>
-      <c r="R58" t="n">
+      <c r="S58" t="n">
         <v>5</v>
       </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
       <c r="T58" t="n">
+        <v>1</v>
+      </c>
+      <c r="U58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4049,16 +4339,21 @@
       <c r="P59" t="n">
         <v>3</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>20</v>
       </c>
-      <c r="R59" t="n">
+      <c r="S59" t="n">
         <v>4</v>
       </c>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
       <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4107,16 +4402,21 @@
       <c r="P60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>20</v>
       </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
         <v>3</v>
       </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
       <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4165,16 +4465,21 @@
       <c r="P61" t="n">
         <v>3</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>20</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T61" t="n">
+        <v>1</v>
+      </c>
+      <c r="U61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4223,16 +4528,21 @@
       <c r="P62" t="n">
         <v>3</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>20</v>
       </c>
-      <c r="R62" t="n">
-        <v>1</v>
-      </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
       <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4287,16 +4597,21 @@
       <c r="P63" t="n">
         <v>3</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>19</v>
       </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
         <v>3</v>
       </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
       <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4351,16 +4666,21 @@
       <c r="P64" t="n">
         <v>3</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>19</v>
       </c>
-      <c r="R64" t="n">
+      <c r="S64" t="n">
         <v>3</v>
       </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
       <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4409,16 +4729,21 @@
       <c r="P65" t="n">
         <v>3</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>19</v>
       </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
+        <v>1</v>
+      </c>
+      <c r="U65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,16 +4792,21 @@
       <c r="P66" t="n">
         <v>3</v>
       </c>
-      <c r="Q66" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>19</v>
       </c>
-      <c r="R66" t="n">
-        <v>1</v>
-      </c>
       <c r="S66" t="n">
         <v>1</v>
       </c>
       <c r="T66" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4531,16 +4861,21 @@
       <c r="P67" t="n">
         <v>3</v>
       </c>
-      <c r="Q67" t="n">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
         <v>18</v>
       </c>
-      <c r="R67" t="n">
+      <c r="S67" t="n">
         <v>3</v>
       </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
       <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4589,16 +4924,21 @@
       <c r="P68" t="n">
         <v>3</v>
       </c>
-      <c r="Q68" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>18</v>
       </c>
-      <c r="R68" t="n">
-        <v>2</v>
-      </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4647,16 +4987,21 @@
       <c r="P69" t="n">
         <v>3</v>
       </c>
-      <c r="Q69" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>18</v>
       </c>
-      <c r="R69" t="n">
-        <v>1</v>
-      </c>
       <c r="S69" t="n">
         <v>1</v>
       </c>
       <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4719,16 +5064,21 @@
       <c r="P70" t="n">
         <v>2</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>11</v>
       </c>
-      <c r="R70" t="n">
-        <v>2</v>
-      </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4781,16 +5131,21 @@
       <c r="P71" t="n">
         <v>2</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>11</v>
       </c>
-      <c r="R71" t="n">
-        <v>1</v>
-      </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4849,16 +5204,21 @@
       <c r="P72" t="n">
         <v>2</v>
       </c>
-      <c r="Q72" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>10</v>
       </c>
-      <c r="R72" t="n">
+      <c r="S72" t="n">
         <v>4</v>
       </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
       <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4917,16 +5277,21 @@
       <c r="P73" t="n">
         <v>2</v>
       </c>
-      <c r="Q73" t="n">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
         <v>10</v>
       </c>
-      <c r="R73" t="n">
+      <c r="S73" t="n">
         <v>4</v>
       </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
       <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4979,16 +5344,21 @@
       <c r="P74" t="n">
         <v>2</v>
       </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>10</v>
       </c>
-      <c r="R74" t="n">
+      <c r="S74" t="n">
         <v>3</v>
       </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
       <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5041,16 +5411,21 @@
       <c r="P75" t="n">
         <v>2</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>10</v>
       </c>
-      <c r="R75" t="n">
-        <v>2</v>
-      </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5103,16 +5478,21 @@
       <c r="P76" t="n">
         <v>2</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
         <v>10</v>
       </c>
-      <c r="R76" t="n">
-        <v>1</v>
-      </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5171,16 +5551,21 @@
       <c r="P77" t="n">
         <v>2</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
         <v>9</v>
       </c>
-      <c r="R77" t="n">
+      <c r="S77" t="n">
         <v>6</v>
       </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
       <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5233,16 +5618,21 @@
       <c r="P78" t="n">
         <v>2</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
         <v>9</v>
       </c>
-      <c r="R78" t="n">
+      <c r="S78" t="n">
         <v>5</v>
       </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
       <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5295,16 +5685,21 @@
       <c r="P79" t="n">
         <v>2</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
         <v>9</v>
       </c>
-      <c r="R79" t="n">
+      <c r="S79" t="n">
         <v>4</v>
       </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
       <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5357,16 +5752,21 @@
       <c r="P80" t="n">
         <v>2</v>
       </c>
-      <c r="Q80" t="n">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
         <v>9</v>
       </c>
-      <c r="R80" t="n">
+      <c r="S80" t="n">
         <v>3</v>
       </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
       <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5419,16 +5819,21 @@
       <c r="P81" t="n">
         <v>2</v>
       </c>
-      <c r="Q81" t="n">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
         <v>9</v>
       </c>
-      <c r="R81" t="n">
-        <v>2</v>
-      </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,16 +5886,21 @@
       <c r="P82" t="n">
         <v>2</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
         <v>9</v>
       </c>
-      <c r="R82" t="n">
-        <v>1</v>
-      </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5545,16 +5955,21 @@
       <c r="P83" t="n">
         <v>2</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>8</v>
       </c>
-      <c r="R83" t="n">
+      <c r="S83" t="n">
         <v>3</v>
       </c>
-      <c r="S83" t="n">
-        <v>0</v>
-      </c>
       <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5605,16 +6020,21 @@
       <c r="P84" t="n">
         <v>2</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
         <v>8</v>
       </c>
-      <c r="R84" t="n">
-        <v>2</v>
-      </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5665,16 +6085,21 @@
       <c r="P85" t="n">
         <v>2</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
         <v>8</v>
       </c>
-      <c r="R85" t="n">
-        <v>1</v>
-      </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5733,16 +6158,21 @@
       <c r="P86" t="n">
         <v>2</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>7</v>
       </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5803,16 +6233,21 @@
       <c r="P87" t="n">
         <v>1</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>3</v>
       </c>
-      <c r="R87" t="n">
+      <c r="S87" t="n">
         <v>4</v>
       </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
       <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5863,16 +6298,21 @@
       <c r="P88" t="n">
         <v>1</v>
       </c>
-      <c r="Q88" t="n">
-        <v>3</v>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R88" t="n">
         <v>3</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5923,16 +6363,21 @@
       <c r="P89" t="n">
         <v>1</v>
       </c>
-      <c r="Q89" t="n">
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>3</v>
       </c>
-      <c r="R89" t="n">
-        <v>2</v>
-      </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5983,16 +6428,21 @@
       <c r="P90" t="n">
         <v>1</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
         <v>3</v>
       </c>
-      <c r="R90" t="n">
-        <v>1</v>
-      </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6045,16 +6495,21 @@
       <c r="P91" t="n">
         <v>1</v>
       </c>
-      <c r="Q91" t="n">
-        <v>2</v>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
         <v>5</v>
       </c>
-      <c r="S91" t="n">
-        <v>0</v>
-      </c>
       <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6107,16 +6562,21 @@
       <c r="P92" t="n">
         <v>1</v>
       </c>
-      <c r="Q92" t="n">
-        <v>2</v>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
         <v>5</v>
       </c>
-      <c r="S92" t="n">
-        <v>0</v>
-      </c>
       <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6165,16 +6625,21 @@
       <c r="P93" t="n">
         <v>1</v>
       </c>
-      <c r="Q93" t="n">
-        <v>2</v>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
         <v>4</v>
       </c>
-      <c r="S93" t="n">
-        <v>0</v>
-      </c>
       <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6223,16 +6688,21 @@
       <c r="P94" t="n">
         <v>1</v>
       </c>
-      <c r="Q94" t="n">
-        <v>2</v>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
         <v>3</v>
       </c>
-      <c r="S94" t="n">
-        <v>0</v>
-      </c>
       <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6281,16 +6751,21 @@
       <c r="P95" t="n">
         <v>1</v>
       </c>
-      <c r="Q95" t="n">
-        <v>2</v>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R95" t="n">
         <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6339,16 +6814,21 @@
       <c r="P96" t="n">
         <v>1</v>
       </c>
-      <c r="Q96" t="n">
-        <v>2</v>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6403,16 +6883,21 @@
       <c r="P97" t="n">
         <v>1</v>
       </c>
-      <c r="Q97" t="n">
-        <v>1</v>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
         <v>4</v>
       </c>
-      <c r="S97" t="n">
-        <v>0</v>
-      </c>
       <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6461,16 +6946,21 @@
       <c r="P98" t="n">
         <v>1</v>
       </c>
-      <c r="Q98" t="n">
-        <v>1</v>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
         <v>3</v>
       </c>
-      <c r="S98" t="n">
-        <v>0</v>
-      </c>
       <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6519,16 +7009,21 @@
       <c r="P99" t="n">
         <v>1</v>
       </c>
-      <c r="Q99" t="n">
-        <v>1</v>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6577,16 +7072,21 @@
       <c r="P100" t="n">
         <v>1</v>
       </c>
-      <c r="Q100" t="n">
-        <v>1</v>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
       </c>
       <c r="R100" t="n">
         <v>1</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6643,16 +7143,21 @@
       <c r="P101" t="n">
         <v>6</v>
       </c>
-      <c r="Q101" t="n">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
         <v>51</v>
       </c>
-      <c r="R101" t="n">
-        <v>1</v>
-      </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
+        <v>2</v>
+      </c>
+      <c r="U101" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6709,16 +7214,21 @@
       <c r="P102" t="n">
         <v>6</v>
       </c>
-      <c r="Q102" t="n">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
         <v>50</v>
       </c>
-      <c r="R102" t="n">
-        <v>1</v>
-      </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
+        <v>2</v>
+      </c>
+      <c r="U102" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6777,16 +7287,21 @@
       <c r="P103" t="n">
         <v>6</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
         <v>49</v>
       </c>
-      <c r="R103" t="n">
-        <v>1</v>
-      </c>
       <c r="S103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T103" t="n">
+        <v>2</v>
+      </c>
+      <c r="U103" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6837,16 +7352,21 @@
       <c r="P104" t="n">
         <v>6</v>
       </c>
-      <c r="Q104" t="n">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
         <v>48</v>
       </c>
-      <c r="R104" t="n">
+      <c r="S104" t="n">
         <v>4</v>
       </c>
-      <c r="S104" t="n">
-        <v>2</v>
-      </c>
       <c r="T104" t="n">
+        <v>2</v>
+      </c>
+      <c r="U104" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6893,16 +7413,21 @@
       <c r="P105" t="n">
         <v>6</v>
       </c>
-      <c r="Q105" t="n">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
         <v>48</v>
       </c>
-      <c r="R105" t="n">
+      <c r="S105" t="n">
         <v>3</v>
       </c>
-      <c r="S105" t="n">
-        <v>2</v>
-      </c>
       <c r="T105" t="n">
+        <v>2</v>
+      </c>
+      <c r="U105" t="n">
         <v>6</v>
       </c>
     </row>
@@ -6949,16 +7474,21 @@
       <c r="P106" t="n">
         <v>6</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
         <v>48</v>
       </c>
-      <c r="R106" t="n">
-        <v>2</v>
-      </c>
       <c r="S106" t="n">
         <v>2</v>
       </c>
       <c r="T106" t="n">
+        <v>2</v>
+      </c>
+      <c r="U106" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7005,16 +7535,21 @@
       <c r="P107" t="n">
         <v>6</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Top</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
         <v>48</v>
       </c>
-      <c r="R107" t="n">
-        <v>1</v>
-      </c>
       <c r="S107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7069,16 +7604,21 @@
       <c r="P108" t="n">
         <v>6</v>
       </c>
-      <c r="Q108" t="n">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
         <v>52</v>
       </c>
-      <c r="R108" t="n">
+      <c r="S108" t="n">
         <v>5</v>
       </c>
-      <c r="S108" t="n">
-        <v>2</v>
-      </c>
       <c r="T108" t="n">
+        <v>2</v>
+      </c>
+      <c r="U108" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7127,16 +7667,21 @@
       <c r="P109" t="n">
         <v>6</v>
       </c>
-      <c r="Q109" t="n">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
         <v>52</v>
       </c>
-      <c r="R109" t="n">
+      <c r="S109" t="n">
         <v>4</v>
       </c>
-      <c r="S109" t="n">
-        <v>2</v>
-      </c>
       <c r="T109" t="n">
+        <v>2</v>
+      </c>
+      <c r="U109" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7185,16 +7730,21 @@
       <c r="P110" t="n">
         <v>6</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
         <v>52</v>
       </c>
-      <c r="R110" t="n">
+      <c r="S110" t="n">
         <v>3</v>
       </c>
-      <c r="S110" t="n">
-        <v>2</v>
-      </c>
       <c r="T110" t="n">
+        <v>2</v>
+      </c>
+      <c r="U110" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7243,16 +7793,21 @@
       <c r="P111" t="n">
         <v>6</v>
       </c>
-      <c r="Q111" t="n">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
         <v>52</v>
       </c>
-      <c r="R111" t="n">
-        <v>2</v>
-      </c>
       <c r="S111" t="n">
         <v>2</v>
       </c>
       <c r="T111" t="n">
+        <v>2</v>
+      </c>
+      <c r="U111" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7301,16 +7856,21 @@
       <c r="P112" t="n">
         <v>6</v>
       </c>
-      <c r="Q112" t="n">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
         <v>52</v>
       </c>
-      <c r="R112" t="n">
-        <v>1</v>
-      </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
+        <v>2</v>
+      </c>
+      <c r="U112" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7369,16 +7929,21 @@
       <c r="P113" t="n">
         <v>6</v>
       </c>
-      <c r="Q113" t="n">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
         <v>51</v>
       </c>
-      <c r="R113" t="n">
+      <c r="S113" t="n">
         <v>5</v>
       </c>
-      <c r="S113" t="n">
-        <v>2</v>
-      </c>
       <c r="T113" t="n">
+        <v>2</v>
+      </c>
+      <c r="U113" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7427,16 +7992,21 @@
       <c r="P114" t="n">
         <v>6</v>
       </c>
-      <c r="Q114" t="n">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
         <v>51</v>
       </c>
-      <c r="R114" t="n">
+      <c r="S114" t="n">
         <v>4</v>
       </c>
-      <c r="S114" t="n">
-        <v>2</v>
-      </c>
       <c r="T114" t="n">
+        <v>2</v>
+      </c>
+      <c r="U114" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7485,16 +8055,21 @@
       <c r="P115" t="n">
         <v>6</v>
       </c>
-      <c r="Q115" t="n">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
         <v>51</v>
       </c>
-      <c r="R115" t="n">
+      <c r="S115" t="n">
         <v>3</v>
       </c>
-      <c r="S115" t="n">
-        <v>2</v>
-      </c>
       <c r="T115" t="n">
+        <v>2</v>
+      </c>
+      <c r="U115" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7543,16 +8118,21 @@
       <c r="P116" t="n">
         <v>6</v>
       </c>
-      <c r="Q116" t="n">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
         <v>51</v>
       </c>
-      <c r="R116" t="n">
-        <v>2</v>
-      </c>
       <c r="S116" t="n">
         <v>2</v>
       </c>
       <c r="T116" t="n">
+        <v>2</v>
+      </c>
+      <c r="U116" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7601,16 +8181,21 @@
       <c r="P117" t="n">
         <v>6</v>
       </c>
-      <c r="Q117" t="n">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
         <v>51</v>
       </c>
-      <c r="R117" t="n">
-        <v>1</v>
-      </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T117" t="n">
+        <v>2</v>
+      </c>
+      <c r="U117" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7669,16 +8254,21 @@
       <c r="P118" t="n">
         <v>6</v>
       </c>
-      <c r="Q118" t="n">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
         <v>50</v>
       </c>
-      <c r="R118" t="n">
+      <c r="S118" t="n">
         <v>3</v>
       </c>
-      <c r="S118" t="n">
-        <v>2</v>
-      </c>
       <c r="T118" t="n">
+        <v>2</v>
+      </c>
+      <c r="U118" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7727,16 +8317,21 @@
       <c r="P119" t="n">
         <v>6</v>
       </c>
-      <c r="Q119" t="n">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
         <v>50</v>
       </c>
-      <c r="R119" t="n">
-        <v>2</v>
-      </c>
       <c r="S119" t="n">
         <v>2</v>
       </c>
       <c r="T119" t="n">
+        <v>2</v>
+      </c>
+      <c r="U119" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7785,16 +8380,21 @@
       <c r="P120" t="n">
         <v>6</v>
       </c>
-      <c r="Q120" t="n">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
         <v>50</v>
       </c>
-      <c r="R120" t="n">
-        <v>1</v>
-      </c>
       <c r="S120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T120" t="n">
+        <v>2</v>
+      </c>
+      <c r="U120" t="n">
         <v>3</v>
       </c>
     </row>
